--- a/Astro/Results_Production_Astro_xgb_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_15min.xlsx
@@ -2427,7 +2427,7 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>0.8070000000000001</v>
+        <v>0.821</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2441,7 +2441,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>0.759</v>
+        <v>0.787</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2455,7 +2455,7 @@
         <v>54</v>
       </c>
       <c r="C5">
-        <v>0.666</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2469,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C6">
-        <v>0.759</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -2483,7 +2483,7 @@
         <v>56</v>
       </c>
       <c r="C7">
-        <v>0.793</v>
+        <v>0.716</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2497,7 +2497,7 @@
         <v>57</v>
       </c>
       <c r="C8">
-        <v>0.781</v>
+        <v>0.785</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -2511,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="C9">
-        <v>0.773</v>
+        <v>0.779</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2525,7 +2525,7 @@
         <v>59</v>
       </c>
       <c r="C10">
-        <v>0.762</v>
+        <v>0.753</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>

--- a/Astro/Results_Production_Astro_xgb_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_15min.xlsx
@@ -28,15 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>09.11.202534</t>
-  </si>
-  <si>
-    <t>09.11.202535</t>
-  </si>
-  <si>
-    <t>09.11.202536</t>
-  </si>
-  <si>
     <t>09.11.202537</t>
   </si>
   <si>
@@ -2024,6 +2015,15 @@
   </si>
   <si>
     <t>16.11.202534</t>
+  </si>
+  <si>
+    <t>16.11.202535</t>
+  </si>
+  <si>
+    <t>16.11.202536</t>
+  </si>
+  <si>
+    <t>16.11.202537</t>
   </si>
 </sst>
 </file>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45970.34375</v>
+        <v>45970.375</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>0.061</v>
+        <v>0.098</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45970.35416666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>0.104</v>
+        <v>0.141</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45970.36458333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.093</v>
+        <v>0.183</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45970.375</v>
+        <v>45970.40625</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.099</v>
+        <v>0.216</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45970.38541666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.154</v>
+        <v>0.205</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45970.39583333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>0.194</v>
+        <v>0.164</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45970.40625</v>
+        <v>45970.4375</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>0.169</v>
+        <v>0.163</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45970.41666666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45970.42708333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45970.4375</v>
+        <v>45970.46875</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45970.44791666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45970.45833333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>0.299</v>
+        <v>0.274</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45970.46875</v>
+        <v>45970.5</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45970.47916666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>0.312</v>
+        <v>0.295</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45970.48958333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45970.5</v>
+        <v>45970.53125</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.298</v>
+        <v>0.268</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2631,13 +2631,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45970.51041666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>0.298</v>
+        <v>0.26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45970.52083333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.267</v>
+        <v>0.237</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45970.53125</v>
+        <v>45970.5625</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>0.253</v>
+        <v>0.234</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45970.54166666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>0.26</v>
+        <v>0.204</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2687,13 +2687,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45970.55208333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>0.235</v>
+        <v>0.194</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45970.5625</v>
+        <v>45970.59375</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>0.234</v>
+        <v>0.182</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -2715,13 +2715,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45970.57291666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B24">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>0.203</v>
+        <v>0.144</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45970.58333333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>0.191</v>
+        <v>0.124</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45970.59375</v>
+        <v>45970.625</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.173</v>
+        <v>0.108</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45970.60416666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>0.152</v>
+        <v>0.094</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45970.61458333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>0.12</v>
+        <v>0.081</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45970.625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.122</v>
+        <v>0.059</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45970.63541666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.097</v>
+        <v>0.035</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45970.64583333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>0.077</v>
+        <v>0.024</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45970.65625</v>
+        <v>45970.6875</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.062</v>
+        <v>0.012</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45970.66666666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45970.67708333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45970.6875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45970.69791666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45970.70833333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B37">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45970.71875</v>
+        <v>45970.75</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45970.72916666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B39">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45970.73958333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45970.75</v>
+        <v>45970.78125</v>
       </c>
       <c r="B41">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45970.76041666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45970.77083333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B43">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45970.78125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45970.79166666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B45">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45970.80208333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B46">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45970.8125</v>
+        <v>45970.84375</v>
       </c>
       <c r="B47">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45970.82291666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45970.83333333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B49">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45970.84375</v>
+        <v>45970.875</v>
       </c>
       <c r="B50">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45970.85416666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B51">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45970.86458333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B52">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45970.875</v>
+        <v>45970.90625</v>
       </c>
       <c r="B53">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45970.88541666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B54">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45970.89583333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B55">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45970.90625</v>
+        <v>45970.9375</v>
       </c>
       <c r="B56">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45970.91666666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B57">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45970.92708333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B58">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45970.9375</v>
+        <v>45970.96875</v>
       </c>
       <c r="B59">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45970.94791666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B60">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45970.95833333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B61">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45970.96875</v>
+        <v>45971</v>
       </c>
       <c r="B62">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45970.97916666666</v>
+        <v>45971.01041666666</v>
       </c>
       <c r="B63">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45970.98958333334</v>
+        <v>45971.02083333334</v>
       </c>
       <c r="B64">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45971</v>
+        <v>45971.03125</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45971.01041666666</v>
+        <v>45971.04166666666</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3317,10 +3317,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45971.02083333334</v>
+        <v>45971.05208333334</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45971.03125</v>
+        <v>45971.0625</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45971.04166666666</v>
+        <v>45971.07291666666</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45971.05208333334</v>
+        <v>45971.09375</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45971.0625</v>
+        <v>45971.10416666666</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45971.07291666666</v>
+        <v>45971.11458333334</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45971.09375</v>
+        <v>45971.125</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45971.10416666666</v>
+        <v>45971.13541666666</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45971.11458333334</v>
+        <v>45971.14583333334</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45971.125</v>
+        <v>45971.15625</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45971.13541666666</v>
+        <v>45971.16666666666</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45971.14583333334</v>
+        <v>45971.17708333334</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45971.15625</v>
+        <v>45971.1875</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45971.16666666666</v>
+        <v>45971.19791666666</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45971.17708333334</v>
+        <v>45971.20833333334</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45971.1875</v>
+        <v>45971.21875</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45971.19791666666</v>
+        <v>45971.22916666666</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45971.20833333334</v>
+        <v>45971.23958333334</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45971.21875</v>
+        <v>45971.25</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45971.22916666666</v>
+        <v>45971.26041666666</v>
       </c>
       <c r="B86">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45971.23958333334</v>
+        <v>45971.27083333334</v>
       </c>
       <c r="B87">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45971.25</v>
+        <v>45971.28125</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45971.26041666666</v>
+        <v>45971.29166666666</v>
       </c>
       <c r="B89">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45971.27083333334</v>
+        <v>45971.30208333334</v>
       </c>
       <c r="B90">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45971.28125</v>
+        <v>45971.3125</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45971.29166666666</v>
+        <v>45971.32291666666</v>
       </c>
       <c r="B92">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45971.30208333334</v>
+        <v>45971.33333333334</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3695,13 +3695,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45971.3125</v>
+        <v>45971.34375</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D94" t="s">
         <v>96</v>
@@ -3709,13 +3709,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45971.32291666666</v>
+        <v>45971.35416666666</v>
       </c>
       <c r="B95">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -3723,13 +3723,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45971.33333333334</v>
+        <v>45971.36458333334</v>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="D96" t="s">
         <v>98</v>
@@ -3737,13 +3737,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45971.34375</v>
+        <v>45971.375</v>
       </c>
       <c r="B97">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C97">
-        <v>0.016</v>
+        <v>0.057</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
@@ -3751,13 +3751,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45971.35416666666</v>
+        <v>45971.38541666666</v>
       </c>
       <c r="B98">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C98">
-        <v>0.026</v>
+        <v>0.082</v>
       </c>
       <c r="D98" t="s">
         <v>100</v>
@@ -3765,13 +3765,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45971.36458333334</v>
+        <v>45971.39583333334</v>
       </c>
       <c r="B99">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C99">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="D99" t="s">
         <v>101</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45971.375</v>
+        <v>45971.40625</v>
       </c>
       <c r="B100">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>0.07199999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="D100" t="s">
         <v>102</v>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45971.38541666666</v>
+        <v>45971.41666666666</v>
       </c>
       <c r="B101">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C101">
-        <v>0.093</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D101" t="s">
         <v>103</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45971.39583333334</v>
+        <v>45971.42708333334</v>
       </c>
       <c r="B102">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C102">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
@@ -3821,13 +3821,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45971.40625</v>
+        <v>45971.4375</v>
       </c>
       <c r="B103">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>0.07199999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="D103" t="s">
         <v>105</v>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45971.41666666666</v>
+        <v>45971.44791666666</v>
       </c>
       <c r="B104">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C104">
-        <v>0.07199999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
@@ -3849,13 +3849,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45971.42708333334</v>
+        <v>45971.45833333334</v>
       </c>
       <c r="B105">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C105">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
@@ -3863,13 +3863,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45971.4375</v>
+        <v>45971.46875</v>
       </c>
       <c r="B106">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C106">
-        <v>0.081</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -3877,13 +3877,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45971.44791666666</v>
+        <v>45971.47916666666</v>
       </c>
       <c r="B107">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C107">
-        <v>0.089</v>
+        <v>0.083</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -3891,13 +3891,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45971.45833333334</v>
+        <v>45971.48958333334</v>
       </c>
       <c r="B108">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C108">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45971.46875</v>
+        <v>45971.5</v>
       </c>
       <c r="B109">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C109">
-        <v>0.083</v>
+        <v>0.077</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45971.47916666666</v>
+        <v>45971.51041666666</v>
       </c>
       <c r="B110">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C110">
-        <v>0.098</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
@@ -3933,13 +3933,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45971.48958333334</v>
+        <v>45971.52083333334</v>
       </c>
       <c r="B111">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C111">
-        <v>0.098</v>
+        <v>0.066</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
@@ -3947,13 +3947,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45971.5</v>
+        <v>45971.53125</v>
       </c>
       <c r="B112">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C112">
-        <v>0.107</v>
+        <v>0.065</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45971.51041666666</v>
+        <v>45971.54166666666</v>
       </c>
       <c r="B113">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C113">
-        <v>0.101</v>
+        <v>0.061</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45971.52083333334</v>
+        <v>45971.55208333334</v>
       </c>
       <c r="B114">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C114">
-        <v>0.08799999999999999</v>
+        <v>0.062</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45971.53125</v>
+        <v>45971.5625</v>
       </c>
       <c r="B115">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C115">
-        <v>0.079</v>
+        <v>0.054</v>
       </c>
       <c r="D115" t="s">
         <v>117</v>
@@ -4003,13 +4003,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45971.54166666666</v>
+        <v>45971.57291666666</v>
       </c>
       <c r="B116">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C116">
-        <v>0.068</v>
+        <v>0.052</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45971.55208333334</v>
+        <v>45971.58333333334</v>
       </c>
       <c r="B117">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C117">
-        <v>0.066</v>
+        <v>0.048</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
@@ -4031,13 +4031,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45971.5625</v>
+        <v>45971.59375</v>
       </c>
       <c r="B118">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C118">
-        <v>0.066</v>
+        <v>0.046</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45971.57291666666</v>
+        <v>45971.60416666666</v>
       </c>
       <c r="B119">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C119">
-        <v>0.064</v>
+        <v>0.035</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
@@ -4059,13 +4059,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45971.58333333334</v>
+        <v>45971.61458333334</v>
       </c>
       <c r="B120">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C120">
-        <v>0.047</v>
+        <v>0.033</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
@@ -4073,13 +4073,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45971.59375</v>
+        <v>45971.625</v>
       </c>
       <c r="B121">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C121">
-        <v>0.043</v>
+        <v>0.029</v>
       </c>
       <c r="D121" t="s">
         <v>123</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45971.60416666666</v>
+        <v>45971.63541666666</v>
       </c>
       <c r="B122">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C122">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="D122" t="s">
         <v>124</v>
@@ -4101,13 +4101,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45971.61458333334</v>
+        <v>45971.64583333334</v>
       </c>
       <c r="B123">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C123">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="D123" t="s">
         <v>125</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45971.625</v>
+        <v>45971.65625</v>
       </c>
       <c r="B124">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C124">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D124" t="s">
         <v>126</v>
@@ -4129,13 +4129,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45971.63541666666</v>
+        <v>45971.66666666666</v>
       </c>
       <c r="B125">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C125">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -4143,13 +4143,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45971.64583333334</v>
+        <v>45971.67708333334</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C126">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D126" t="s">
         <v>128</v>
@@ -4157,13 +4157,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45971.65625</v>
+        <v>45971.6875</v>
       </c>
       <c r="B127">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C127">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D127" t="s">
         <v>129</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45971.66666666666</v>
+        <v>45971.69791666666</v>
       </c>
       <c r="B128">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45971.67708333334</v>
+        <v>45971.70833333334</v>
       </c>
       <c r="B129">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45971.6875</v>
+        <v>45971.71875</v>
       </c>
       <c r="B130">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45971.69791666666</v>
+        <v>45971.72916666666</v>
       </c>
       <c r="B131">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45971.70833333334</v>
+        <v>45971.73958333334</v>
       </c>
       <c r="B132">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45971.71875</v>
+        <v>45971.75</v>
       </c>
       <c r="B133">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45971.72916666666</v>
+        <v>45971.76041666666</v>
       </c>
       <c r="B134">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45971.73958333334</v>
+        <v>45971.77083333334</v>
       </c>
       <c r="B135">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45971.75</v>
+        <v>45971.78125</v>
       </c>
       <c r="B136">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45971.76041666666</v>
+        <v>45971.79166666666</v>
       </c>
       <c r="B137">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45971.77083333334</v>
+        <v>45971.80208333334</v>
       </c>
       <c r="B138">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45971.78125</v>
+        <v>45971.8125</v>
       </c>
       <c r="B139">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45971.79166666666</v>
+        <v>45971.82291666666</v>
       </c>
       <c r="B140">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45971.80208333334</v>
+        <v>45971.83333333334</v>
       </c>
       <c r="B141">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45971.8125</v>
+        <v>45971.84375</v>
       </c>
       <c r="B142">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45971.82291666666</v>
+        <v>45971.85416666666</v>
       </c>
       <c r="B143">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45971.83333333334</v>
+        <v>45971.86458333334</v>
       </c>
       <c r="B144">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45971.84375</v>
+        <v>45971.875</v>
       </c>
       <c r="B145">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45971.85416666666</v>
+        <v>45971.88541666666</v>
       </c>
       <c r="B146">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45971.86458333334</v>
+        <v>45971.89583333334</v>
       </c>
       <c r="B147">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45971.875</v>
+        <v>45971.90625</v>
       </c>
       <c r="B148">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45971.88541666666</v>
+        <v>45971.91666666666</v>
       </c>
       <c r="B149">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45971.89583333334</v>
+        <v>45971.92708333334</v>
       </c>
       <c r="B150">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4493,10 +4493,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45971.90625</v>
+        <v>45971.9375</v>
       </c>
       <c r="B151">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45971.91666666666</v>
+        <v>45971.94791666666</v>
       </c>
       <c r="B152">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45971.92708333334</v>
+        <v>45971.95833333334</v>
       </c>
       <c r="B153">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45971.9375</v>
+        <v>45971.96875</v>
       </c>
       <c r="B154">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45971.94791666666</v>
+        <v>45971.97916666666</v>
       </c>
       <c r="B155">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45971.95833333334</v>
+        <v>45971.98958333334</v>
       </c>
       <c r="B156">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45971.96875</v>
+        <v>45972</v>
       </c>
       <c r="B157">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45971.97916666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B158">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45971.98958333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B159">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45972</v>
+        <v>45972.03125</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45972.01041666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45972.02083333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45972.03125</v>
+        <v>45972.0625</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4675,10 +4675,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45972.04166666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45972.05208333334</v>
+        <v>45972.09375</v>
       </c>
       <c r="B165">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45972.0625</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45972.07291666666</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45972.09375</v>
+        <v>45972.125</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45972.10416666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45972.11458333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45972.125</v>
+        <v>45972.15625</v>
       </c>
       <c r="B171">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45972.13541666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B172">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45972.14583333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45972.15625</v>
+        <v>45972.1875</v>
       </c>
       <c r="B174">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45972.16666666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B175">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45972.17708333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B176">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45972.1875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B177">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45972.19791666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B178">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45972.20833333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B179">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45972.21875</v>
+        <v>45972.25</v>
       </c>
       <c r="B180">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45972.22916666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B181">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45972.23958333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B182">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45972.25</v>
+        <v>45972.28125</v>
       </c>
       <c r="B183">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45972.26041666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B184">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45972.27083333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B185">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45972.28125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B186">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45972.29166666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B187">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45972.30208333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B188">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45972.3125</v>
+        <v>45972.34375</v>
       </c>
       <c r="B189">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D189" t="s">
         <v>191</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45972.32291666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B190">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="D190" t="s">
         <v>192</v>
@@ -5053,13 +5053,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45972.33333333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B191">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C191">
-        <v>0.01</v>
+        <v>0.055</v>
       </c>
       <c r="D191" t="s">
         <v>193</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45972.34375</v>
+        <v>45972.375</v>
       </c>
       <c r="B192">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C192">
-        <v>0.023</v>
+        <v>0.068</v>
       </c>
       <c r="D192" t="s">
         <v>194</v>
@@ -5081,13 +5081,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45972.35416666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B193">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C193">
-        <v>0.043</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D193" t="s">
         <v>195</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45972.36458333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B194">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C194">
-        <v>0.073</v>
+        <v>0.107</v>
       </c>
       <c r="D194" t="s">
         <v>196</v>
@@ -5109,13 +5109,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45972.375</v>
+        <v>45972.40625</v>
       </c>
       <c r="B195">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C195">
-        <v>0.07199999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="D195" t="s">
         <v>197</v>
@@ -5123,13 +5123,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45972.38541666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B196">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C196">
-        <v>0.118</v>
+        <v>0.128</v>
       </c>
       <c r="D196" t="s">
         <v>198</v>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45972.39583333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B197">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C197">
-        <v>0.142</v>
+        <v>0.149</v>
       </c>
       <c r="D197" t="s">
         <v>199</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45972.40625</v>
+        <v>45972.4375</v>
       </c>
       <c r="B198">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C198">
-        <v>0.144</v>
+        <v>0.175</v>
       </c>
       <c r="D198" t="s">
         <v>200</v>
@@ -5165,13 +5165,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45972.41666666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B199">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C199">
-        <v>0.152</v>
+        <v>0.202</v>
       </c>
       <c r="D199" t="s">
         <v>201</v>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45972.42708333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B200">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C200">
-        <v>0.188</v>
+        <v>0.242</v>
       </c>
       <c r="D200" t="s">
         <v>202</v>
@@ -5193,13 +5193,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45972.4375</v>
+        <v>45972.46875</v>
       </c>
       <c r="B201">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C201">
-        <v>0.22</v>
+        <v>0.253</v>
       </c>
       <c r="D201" t="s">
         <v>203</v>
@@ -5207,13 +5207,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>45972.44791666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B202">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C202">
-        <v>0.235</v>
+        <v>0.252</v>
       </c>
       <c r="D202" t="s">
         <v>204</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>45972.45833333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B203">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C203">
-        <v>0.243</v>
+        <v>0.276</v>
       </c>
       <c r="D203" t="s">
         <v>205</v>
@@ -5235,13 +5235,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>45972.46875</v>
+        <v>45972.5</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C204">
-        <v>0.267</v>
+        <v>0.264</v>
       </c>
       <c r="D204" t="s">
         <v>206</v>
@@ -5249,13 +5249,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>45972.47916666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B205">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C205">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
       <c r="D205" t="s">
         <v>207</v>
@@ -5263,13 +5263,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>45972.48958333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B206">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C206">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
       <c r="D206" t="s">
         <v>208</v>
@@ -5277,13 +5277,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>45972.5</v>
+        <v>45972.53125</v>
       </c>
       <c r="B207">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C207">
-        <v>0.291</v>
+        <v>0.259</v>
       </c>
       <c r="D207" t="s">
         <v>209</v>
@@ -5291,13 +5291,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>45972.51041666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B208">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C208">
-        <v>0.285</v>
+        <v>0.251</v>
       </c>
       <c r="D208" t="s">
         <v>210</v>
@@ -5305,13 +5305,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>45972.52083333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B209">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C209">
-        <v>0.265</v>
+        <v>0.233</v>
       </c>
       <c r="D209" t="s">
         <v>211</v>
@@ -5319,13 +5319,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>45972.53125</v>
+        <v>45972.5625</v>
       </c>
       <c r="B210">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C210">
-        <v>0.261</v>
+        <v>0.222</v>
       </c>
       <c r="D210" t="s">
         <v>212</v>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>45972.54166666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B211">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C211">
-        <v>0.252</v>
+        <v>0.204</v>
       </c>
       <c r="D211" t="s">
         <v>213</v>
@@ -5347,13 +5347,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>45972.55208333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B212">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C212">
-        <v>0.233</v>
+        <v>0.178</v>
       </c>
       <c r="D212" t="s">
         <v>214</v>
@@ -5361,13 +5361,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>45972.5625</v>
+        <v>45972.59375</v>
       </c>
       <c r="B213">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C213">
-        <v>0.222</v>
+        <v>0.151</v>
       </c>
       <c r="D213" t="s">
         <v>215</v>
@@ -5375,13 +5375,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>45972.57291666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B214">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C214">
-        <v>0.204</v>
+        <v>0.143</v>
       </c>
       <c r="D214" t="s">
         <v>216</v>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>45972.58333333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B215">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C215">
-        <v>0.178</v>
+        <v>0.116</v>
       </c>
       <c r="D215" t="s">
         <v>217</v>
@@ -5403,13 +5403,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>45972.59375</v>
+        <v>45972.625</v>
       </c>
       <c r="B216">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C216">
-        <v>0.151</v>
+        <v>0.098</v>
       </c>
       <c r="D216" t="s">
         <v>218</v>
@@ -5417,13 +5417,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>45972.60416666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B217">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C217">
-        <v>0.143</v>
+        <v>0.078</v>
       </c>
       <c r="D217" t="s">
         <v>219</v>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>45972.61458333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B218">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C218">
-        <v>0.116</v>
+        <v>0.068</v>
       </c>
       <c r="D218" t="s">
         <v>220</v>
@@ -5445,13 +5445,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>45972.625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B219">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C219">
-        <v>0.098</v>
+        <v>0.039</v>
       </c>
       <c r="D219" t="s">
         <v>221</v>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>45972.63541666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B220">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C220">
-        <v>0.078</v>
+        <v>0.027</v>
       </c>
       <c r="D220" t="s">
         <v>222</v>
@@ -5473,13 +5473,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>45972.64583333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B221">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C221">
-        <v>0.068</v>
+        <v>0.017</v>
       </c>
       <c r="D221" t="s">
         <v>223</v>
@@ -5487,13 +5487,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>45972.65625</v>
+        <v>45972.6875</v>
       </c>
       <c r="B222">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C222">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="D222" t="s">
         <v>224</v>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>45972.66666666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B223">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C223">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="D223" t="s">
         <v>225</v>
@@ -5515,13 +5515,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>45972.67708333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B224">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C224">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="D224" t="s">
         <v>226</v>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>45972.6875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B225">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>45972.69791666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B226">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>45972.70833333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B227">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>45972.71875</v>
+        <v>45972.75</v>
       </c>
       <c r="B228">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -5585,10 +5585,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>45972.72916666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B229">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>45972.73958333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B230">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>45972.75</v>
+        <v>45972.78125</v>
       </c>
       <c r="B231">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5627,10 +5627,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>45972.76041666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B232">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>45972.77083333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B233">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>45972.78125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B234">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>45972.79166666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B235">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>45972.80208333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B236">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>45972.8125</v>
+        <v>45972.84375</v>
       </c>
       <c r="B237">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>45972.82291666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B238">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -5725,10 +5725,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>45972.83333333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B239">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>45972.84375</v>
+        <v>45972.875</v>
       </c>
       <c r="B240">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>45972.85416666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B241">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>45972.86458333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B242">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>45972.875</v>
+        <v>45972.90625</v>
       </c>
       <c r="B243">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -5795,10 +5795,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>45972.88541666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B244">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>45972.89583333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B245">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -5823,10 +5823,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>45972.90625</v>
+        <v>45972.9375</v>
       </c>
       <c r="B246">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -5837,10 +5837,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>45972.91666666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B247">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>45972.92708333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B248">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>45972.9375</v>
+        <v>45972.96875</v>
       </c>
       <c r="B249">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -5879,10 +5879,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>45972.94791666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B250">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>45972.95833333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B251">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>45972.96875</v>
+        <v>45973</v>
       </c>
       <c r="B252">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>45972.97916666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B253">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>45972.98958333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B254">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -5949,10 +5949,10 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>45973</v>
+        <v>45973.03125</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>45973.01041666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>45973.02083333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>45973.03125</v>
+        <v>45973.0625</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>45973.04166666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>45973.05208333334</v>
+        <v>45973.09375</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>45973.0625</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>45973.07291666666</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B262">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>45973.09375</v>
+        <v>45973.125</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>45973.10416666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B264">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>45973.11458333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B265">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>45973.125</v>
+        <v>45973.15625</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>45973.13541666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B267">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>45973.14583333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B268">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>45973.15625</v>
+        <v>45973.1875</v>
       </c>
       <c r="B269">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>45973.16666666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B270">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -6173,10 +6173,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>45973.17708333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B271">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>45973.1875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B272">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -6201,10 +6201,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>45973.19791666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B273">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>45973.20833333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B274">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>45973.21875</v>
+        <v>45973.25</v>
       </c>
       <c r="B275">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6243,10 +6243,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>45973.22916666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B276">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>45973.23958333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B277">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>45973.25</v>
+        <v>45973.28125</v>
       </c>
       <c r="B278">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>45973.26041666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B279">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>45973.27083333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B280">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>45973.28125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B281">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>45973.29166666666</v>
+        <v>45973.32291666666</v>
       </c>
       <c r="B282">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -6341,13 +6341,13 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>45973.30208333334</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="B283">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D283" t="s">
         <v>285</v>
@@ -6355,13 +6355,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>45973.3125</v>
+        <v>45973.34375</v>
       </c>
       <c r="B284">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D284" t="s">
         <v>286</v>
@@ -6369,13 +6369,13 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>45973.32291666666</v>
+        <v>45973.35416666666</v>
       </c>
       <c r="B285">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D285" t="s">
         <v>287</v>
@@ -6383,13 +6383,13 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>45973.33333333334</v>
+        <v>45973.36458333334</v>
       </c>
       <c r="B286">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C286">
-        <v>0.011</v>
+        <v>0.043</v>
       </c>
       <c r="D286" t="s">
         <v>288</v>
@@ -6397,13 +6397,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>45973.34375</v>
+        <v>45973.375</v>
       </c>
       <c r="B287">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C287">
-        <v>0.02</v>
+        <v>0.062</v>
       </c>
       <c r="D287" t="s">
         <v>289</v>
@@ -6411,13 +6411,13 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>45973.35416666666</v>
+        <v>45973.38541666666</v>
       </c>
       <c r="B288">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C288">
-        <v>0.032</v>
+        <v>0.079</v>
       </c>
       <c r="D288" t="s">
         <v>290</v>
@@ -6425,13 +6425,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>45973.36458333334</v>
+        <v>45973.39583333334</v>
       </c>
       <c r="B289">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C289">
-        <v>0.058</v>
+        <v>0.076</v>
       </c>
       <c r="D289" t="s">
         <v>291</v>
@@ -6439,13 +6439,13 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>45973.375</v>
+        <v>45973.40625</v>
       </c>
       <c r="B290">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C290">
-        <v>0.073</v>
+        <v>0.099</v>
       </c>
       <c r="D290" t="s">
         <v>292</v>
@@ -6453,13 +6453,13 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>45973.38541666666</v>
+        <v>45973.41666666666</v>
       </c>
       <c r="B291">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C291">
-        <v>0.076</v>
+        <v>0.128</v>
       </c>
       <c r="D291" t="s">
         <v>293</v>
@@ -6467,13 +6467,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>45973.39583333334</v>
+        <v>45973.42708333334</v>
       </c>
       <c r="B292">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C292">
-        <v>0.093</v>
+        <v>0.149</v>
       </c>
       <c r="D292" t="s">
         <v>294</v>
@@ -6481,13 +6481,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>45973.40625</v>
+        <v>45973.4375</v>
       </c>
       <c r="B293">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C293">
-        <v>0.106</v>
+        <v>0.134</v>
       </c>
       <c r="D293" t="s">
         <v>295</v>
@@ -6495,13 +6495,13 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>45973.41666666666</v>
+        <v>45973.44791666666</v>
       </c>
       <c r="B294">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C294">
-        <v>0.131</v>
+        <v>0.168</v>
       </c>
       <c r="D294" t="s">
         <v>296</v>
@@ -6509,13 +6509,13 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>45973.42708333334</v>
+        <v>45973.45833333334</v>
       </c>
       <c r="B295">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C295">
-        <v>0.142</v>
+        <v>0.168</v>
       </c>
       <c r="D295" t="s">
         <v>297</v>
@@ -6523,13 +6523,13 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>45973.4375</v>
+        <v>45973.46875</v>
       </c>
       <c r="B296">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C296">
-        <v>0.164</v>
+        <v>0.169</v>
       </c>
       <c r="D296" t="s">
         <v>298</v>
@@ -6537,13 +6537,13 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>45973.44791666666</v>
+        <v>45973.47916666666</v>
       </c>
       <c r="B297">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C297">
-        <v>0.163</v>
+        <v>0.194</v>
       </c>
       <c r="D297" t="s">
         <v>299</v>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>45973.45833333334</v>
+        <v>45973.48958333334</v>
       </c>
       <c r="B298">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C298">
         <v>0.197</v>
@@ -6565,13 +6565,13 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>45973.46875</v>
+        <v>45973.5</v>
       </c>
       <c r="B299">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C299">
-        <v>0.217</v>
+        <v>0.195</v>
       </c>
       <c r="D299" t="s">
         <v>301</v>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>45973.47916666666</v>
+        <v>45973.51041666666</v>
       </c>
       <c r="B300">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C300">
-        <v>0.236</v>
+        <v>0.201</v>
       </c>
       <c r="D300" t="s">
         <v>302</v>
@@ -6593,13 +6593,13 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>45973.48958333334</v>
+        <v>45973.52083333334</v>
       </c>
       <c r="B301">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C301">
-        <v>0.259</v>
+        <v>0.208</v>
       </c>
       <c r="D301" t="s">
         <v>303</v>
@@ -6607,13 +6607,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>45973.5</v>
+        <v>45973.53125</v>
       </c>
       <c r="B302">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C302">
-        <v>0.263</v>
+        <v>0.232</v>
       </c>
       <c r="D302" t="s">
         <v>304</v>
@@ -6621,13 +6621,13 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>45973.51041666666</v>
+        <v>45973.54166666666</v>
       </c>
       <c r="B303">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C303">
-        <v>0.261</v>
+        <v>0.236</v>
       </c>
       <c r="D303" t="s">
         <v>305</v>
@@ -6635,13 +6635,13 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>45973.52083333334</v>
+        <v>45973.55208333334</v>
       </c>
       <c r="B304">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C304">
-        <v>0.258</v>
+        <v>0.23</v>
       </c>
       <c r="D304" t="s">
         <v>306</v>
@@ -6649,13 +6649,13 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>45973.53125</v>
+        <v>45973.5625</v>
       </c>
       <c r="B305">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C305">
-        <v>0.243</v>
+        <v>0.2</v>
       </c>
       <c r="D305" t="s">
         <v>307</v>
@@ -6663,13 +6663,13 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>45973.54166666666</v>
+        <v>45973.57291666666</v>
       </c>
       <c r="B306">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C306">
-        <v>0.242</v>
+        <v>0.18</v>
       </c>
       <c r="D306" t="s">
         <v>308</v>
@@ -6677,13 +6677,13 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>45973.55208333334</v>
+        <v>45973.58333333334</v>
       </c>
       <c r="B307">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C307">
-        <v>0.23</v>
+        <v>0.157</v>
       </c>
       <c r="D307" t="s">
         <v>309</v>
@@ -6691,13 +6691,13 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>45973.5625</v>
+        <v>45973.59375</v>
       </c>
       <c r="B308">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C308">
-        <v>0.204</v>
+        <v>0.152</v>
       </c>
       <c r="D308" t="s">
         <v>310</v>
@@ -6705,13 +6705,13 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>45973.57291666666</v>
+        <v>45973.60416666666</v>
       </c>
       <c r="B309">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C309">
-        <v>0.188</v>
+        <v>0.121</v>
       </c>
       <c r="D309" t="s">
         <v>311</v>
@@ -6719,13 +6719,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>45973.58333333334</v>
+        <v>45973.61458333334</v>
       </c>
       <c r="B310">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C310">
-        <v>0.157</v>
+        <v>0.099</v>
       </c>
       <c r="D310" t="s">
         <v>312</v>
@@ -6733,13 +6733,13 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>45973.59375</v>
+        <v>45973.625</v>
       </c>
       <c r="B311">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C311">
-        <v>0.152</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D311" t="s">
         <v>313</v>
@@ -6747,13 +6747,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>45973.60416666666</v>
+        <v>45973.63541666666</v>
       </c>
       <c r="B312">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C312">
-        <v>0.121</v>
+        <v>0.067</v>
       </c>
       <c r="D312" t="s">
         <v>314</v>
@@ -6761,13 +6761,13 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>45973.61458333334</v>
+        <v>45973.64583333334</v>
       </c>
       <c r="B313">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C313">
-        <v>0.099</v>
+        <v>0.044</v>
       </c>
       <c r="D313" t="s">
         <v>315</v>
@@ -6775,13 +6775,13 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>45973.625</v>
+        <v>45973.65625</v>
       </c>
       <c r="B314">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C314">
-        <v>0.08400000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="D314" t="s">
         <v>316</v>
@@ -6789,13 +6789,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>45973.63541666666</v>
+        <v>45973.66666666666</v>
       </c>
       <c r="B315">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C315">
-        <v>0.067</v>
+        <v>0.017</v>
       </c>
       <c r="D315" t="s">
         <v>317</v>
@@ -6803,13 +6803,13 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>45973.64583333334</v>
+        <v>45973.67708333334</v>
       </c>
       <c r="B316">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C316">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D316" t="s">
         <v>318</v>
@@ -6817,13 +6817,13 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>45973.65625</v>
+        <v>45973.6875</v>
       </c>
       <c r="B317">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C317">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="D317" t="s">
         <v>319</v>
@@ -6831,13 +6831,13 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>45973.66666666666</v>
+        <v>45973.69791666666</v>
       </c>
       <c r="B318">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C318">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="D318" t="s">
         <v>320</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>45973.67708333334</v>
+        <v>45973.70833333334</v>
       </c>
       <c r="B319">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -6859,10 +6859,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>45973.6875</v>
+        <v>45973.71875</v>
       </c>
       <c r="B320">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -6873,10 +6873,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>45973.69791666666</v>
+        <v>45973.72916666666</v>
       </c>
       <c r="B321">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>45973.70833333334</v>
+        <v>45973.73958333334</v>
       </c>
       <c r="B322">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -6901,10 +6901,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>45973.71875</v>
+        <v>45973.75</v>
       </c>
       <c r="B323">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>45973.72916666666</v>
+        <v>45973.76041666666</v>
       </c>
       <c r="B324">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -6929,10 +6929,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>45973.73958333334</v>
+        <v>45973.77083333334</v>
       </c>
       <c r="B325">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -6943,10 +6943,10 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>45973.75</v>
+        <v>45973.78125</v>
       </c>
       <c r="B326">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -6957,10 +6957,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>45973.76041666666</v>
+        <v>45973.79166666666</v>
       </c>
       <c r="B327">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -6971,10 +6971,10 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>45973.77083333334</v>
+        <v>45973.80208333334</v>
       </c>
       <c r="B328">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -6985,10 +6985,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>45973.78125</v>
+        <v>45973.8125</v>
       </c>
       <c r="B329">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>45973.79166666666</v>
+        <v>45973.82291666666</v>
       </c>
       <c r="B330">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -7013,10 +7013,10 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>45973.80208333334</v>
+        <v>45973.83333333334</v>
       </c>
       <c r="B331">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>45973.8125</v>
+        <v>45973.84375</v>
       </c>
       <c r="B332">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>45973.82291666666</v>
+        <v>45973.85416666666</v>
       </c>
       <c r="B333">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -7055,10 +7055,10 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>45973.83333333334</v>
+        <v>45973.86458333334</v>
       </c>
       <c r="B334">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>45973.84375</v>
+        <v>45973.875</v>
       </c>
       <c r="B335">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -7083,10 +7083,10 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>45973.85416666666</v>
+        <v>45973.88541666666</v>
       </c>
       <c r="B336">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>45973.86458333334</v>
+        <v>45973.89583333334</v>
       </c>
       <c r="B337">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -7111,10 +7111,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>45973.875</v>
+        <v>45973.90625</v>
       </c>
       <c r="B338">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -7125,10 +7125,10 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>45973.88541666666</v>
+        <v>45973.91666666666</v>
       </c>
       <c r="B339">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>45973.89583333334</v>
+        <v>45973.92708333334</v>
       </c>
       <c r="B340">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>45973.90625</v>
+        <v>45973.9375</v>
       </c>
       <c r="B341">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>45973.91666666666</v>
+        <v>45973.94791666666</v>
       </c>
       <c r="B342">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>45973.92708333334</v>
+        <v>45973.95833333334</v>
       </c>
       <c r="B343">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>45973.9375</v>
+        <v>45973.96875</v>
       </c>
       <c r="B344">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -7209,10 +7209,10 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>45973.94791666666</v>
+        <v>45973.97916666666</v>
       </c>
       <c r="B345">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -7223,10 +7223,10 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>45973.95833333334</v>
+        <v>45973.98958333334</v>
       </c>
       <c r="B346">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -7237,10 +7237,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>45973.96875</v>
+        <v>45974</v>
       </c>
       <c r="B347">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>45973.97916666666</v>
+        <v>45974.01041666666</v>
       </c>
       <c r="B348">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -7265,10 +7265,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>45973.98958333334</v>
+        <v>45974.02083333334</v>
       </c>
       <c r="B349">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -7279,10 +7279,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>45974</v>
+        <v>45974.03125</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -7293,10 +7293,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>45974.01041666666</v>
+        <v>45974.04166666666</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>45974.02083333334</v>
+        <v>45974.05208333334</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -7321,10 +7321,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>45974.03125</v>
+        <v>45974.0625</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -7335,10 +7335,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>45974.04166666666</v>
+        <v>45974.07291666666</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>45974.05208333334</v>
+        <v>45974.09375</v>
       </c>
       <c r="B355">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -7363,10 +7363,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>45974.0625</v>
+        <v>45974.10416666666</v>
       </c>
       <c r="B356">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>45974.07291666666</v>
+        <v>45974.11458333334</v>
       </c>
       <c r="B357">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>45974.09375</v>
+        <v>45974.125</v>
       </c>
       <c r="B358">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>45974.10416666666</v>
+        <v>45974.13541666666</v>
       </c>
       <c r="B359">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>45974.11458333334</v>
+        <v>45974.14583333334</v>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -7433,10 +7433,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>45974.125</v>
+        <v>45974.15625</v>
       </c>
       <c r="B361">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>45974.13541666666</v>
+        <v>45974.16666666666</v>
       </c>
       <c r="B362">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>45974.14583333334</v>
+        <v>45974.17708333334</v>
       </c>
       <c r="B363">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -7475,10 +7475,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>45974.15625</v>
+        <v>45974.1875</v>
       </c>
       <c r="B364">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>45974.16666666666</v>
+        <v>45974.19791666666</v>
       </c>
       <c r="B365">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>45974.17708333334</v>
+        <v>45974.20833333334</v>
       </c>
       <c r="B366">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>45974.1875</v>
+        <v>45974.21875</v>
       </c>
       <c r="B367">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -7531,10 +7531,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>45974.19791666666</v>
+        <v>45974.22916666666</v>
       </c>
       <c r="B368">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>45974.20833333334</v>
+        <v>45974.23958333334</v>
       </c>
       <c r="B369">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -7559,10 +7559,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>45974.21875</v>
+        <v>45974.25</v>
       </c>
       <c r="B370">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -7573,10 +7573,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>45974.22916666666</v>
+        <v>45974.26041666666</v>
       </c>
       <c r="B371">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>45974.23958333334</v>
+        <v>45974.27083333334</v>
       </c>
       <c r="B372">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>45974.25</v>
+        <v>45974.28125</v>
       </c>
       <c r="B373">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -7615,10 +7615,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>45974.26041666666</v>
+        <v>45974.29166666666</v>
       </c>
       <c r="B374">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -7629,10 +7629,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>45974.27083333334</v>
+        <v>45974.30208333334</v>
       </c>
       <c r="B375">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -7643,10 +7643,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>45974.28125</v>
+        <v>45974.3125</v>
       </c>
       <c r="B376">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>45974.29166666666</v>
+        <v>45974.32291666666</v>
       </c>
       <c r="B377">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -7671,13 +7671,13 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>45974.30208333334</v>
+        <v>45974.33333333334</v>
       </c>
       <c r="B378">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D378" t="s">
         <v>380</v>
@@ -7685,13 +7685,13 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>45974.3125</v>
+        <v>45974.34375</v>
       </c>
       <c r="B379">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="D379" t="s">
         <v>381</v>
@@ -7699,13 +7699,13 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>45974.32291666666</v>
+        <v>45974.35416666666</v>
       </c>
       <c r="B380">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D380" t="s">
         <v>382</v>
@@ -7713,13 +7713,13 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>45974.33333333334</v>
+        <v>45974.36458333334</v>
       </c>
       <c r="B381">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C381">
-        <v>0.01</v>
+        <v>0.055</v>
       </c>
       <c r="D381" t="s">
         <v>383</v>
@@ -7727,13 +7727,13 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>45974.34375</v>
+        <v>45974.375</v>
       </c>
       <c r="B382">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C382">
-        <v>0.024</v>
+        <v>0.068</v>
       </c>
       <c r="D382" t="s">
         <v>384</v>
@@ -7741,13 +7741,13 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>45974.35416666666</v>
+        <v>45974.38541666666</v>
       </c>
       <c r="B383">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C383">
-        <v>0.034</v>
+        <v>0.082</v>
       </c>
       <c r="D383" t="s">
         <v>385</v>
@@ -7755,13 +7755,13 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>45974.36458333334</v>
+        <v>45974.39583333334</v>
       </c>
       <c r="B384">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C384">
-        <v>0.067</v>
+        <v>0.112</v>
       </c>
       <c r="D384" t="s">
         <v>386</v>
@@ -7769,13 +7769,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>45974.375</v>
+        <v>45974.40625</v>
       </c>
       <c r="B385">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C385">
-        <v>0.073</v>
+        <v>0.113</v>
       </c>
       <c r="D385" t="s">
         <v>387</v>
@@ -7783,13 +7783,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>45974.38541666666</v>
+        <v>45974.41666666666</v>
       </c>
       <c r="B386">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C386">
-        <v>0.093</v>
+        <v>0.137</v>
       </c>
       <c r="D386" t="s">
         <v>388</v>
@@ -7797,13 +7797,13 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>45974.39583333334</v>
+        <v>45974.42708333334</v>
       </c>
       <c r="B387">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C387">
-        <v>0.111</v>
+        <v>0.14</v>
       </c>
       <c r="D387" t="s">
         <v>389</v>
@@ -7811,13 +7811,13 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>45974.40625</v>
+        <v>45974.4375</v>
       </c>
       <c r="B388">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C388">
-        <v>0.118</v>
+        <v>0.157</v>
       </c>
       <c r="D388" t="s">
         <v>390</v>
@@ -7825,13 +7825,13 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>45974.41666666666</v>
+        <v>45974.44791666666</v>
       </c>
       <c r="B389">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C389">
-        <v>0.136</v>
+        <v>0.165</v>
       </c>
       <c r="D389" t="s">
         <v>391</v>
@@ -7839,13 +7839,13 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>45974.42708333334</v>
+        <v>45974.45833333334</v>
       </c>
       <c r="B390">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C390">
-        <v>0.132</v>
+        <v>0.196</v>
       </c>
       <c r="D390" t="s">
         <v>392</v>
@@ -7853,13 +7853,13 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>45974.4375</v>
+        <v>45974.46875</v>
       </c>
       <c r="B391">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C391">
-        <v>0.143</v>
+        <v>0.209</v>
       </c>
       <c r="D391" t="s">
         <v>393</v>
@@ -7867,13 +7867,13 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>45974.44791666666</v>
+        <v>45974.47916666666</v>
       </c>
       <c r="B392">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C392">
-        <v>0.184</v>
+        <v>0.237</v>
       </c>
       <c r="D392" t="s">
         <v>394</v>
@@ -7881,13 +7881,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>45974.45833333334</v>
+        <v>45974.48958333334</v>
       </c>
       <c r="B393">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C393">
-        <v>0.203</v>
+        <v>0.256</v>
       </c>
       <c r="D393" t="s">
         <v>395</v>
@@ -7895,13 +7895,13 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>45974.46875</v>
+        <v>45974.5</v>
       </c>
       <c r="B394">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C394">
-        <v>0.241</v>
+        <v>0.258</v>
       </c>
       <c r="D394" t="s">
         <v>396</v>
@@ -7909,13 +7909,13 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>45974.47916666666</v>
+        <v>45974.51041666666</v>
       </c>
       <c r="B395">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C395">
-        <v>0.254</v>
+        <v>0.248</v>
       </c>
       <c r="D395" t="s">
         <v>397</v>
@@ -7923,13 +7923,13 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>45974.48958333334</v>
+        <v>45974.52083333334</v>
       </c>
       <c r="B396">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C396">
-        <v>0.248</v>
+        <v>0.259</v>
       </c>
       <c r="D396" t="s">
         <v>398</v>
@@ -7937,13 +7937,13 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>45974.5</v>
+        <v>45974.53125</v>
       </c>
       <c r="B397">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C397">
-        <v>0.251</v>
+        <v>0.268</v>
       </c>
       <c r="D397" t="s">
         <v>399</v>
@@ -7951,13 +7951,13 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>45974.51041666666</v>
+        <v>45974.54166666666</v>
       </c>
       <c r="B398">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C398">
-        <v>0.257</v>
+        <v>0.263</v>
       </c>
       <c r="D398" t="s">
         <v>400</v>
@@ -7965,13 +7965,13 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>45974.52083333334</v>
+        <v>45974.55208333334</v>
       </c>
       <c r="B399">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C399">
-        <v>0.277</v>
+        <v>0.265</v>
       </c>
       <c r="D399" t="s">
         <v>401</v>
@@ -7979,13 +7979,13 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>45974.53125</v>
+        <v>45974.5625</v>
       </c>
       <c r="B400">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C400">
-        <v>0.261</v>
+        <v>0.247</v>
       </c>
       <c r="D400" t="s">
         <v>402</v>
@@ -7993,13 +7993,13 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>45974.54166666666</v>
+        <v>45974.57291666666</v>
       </c>
       <c r="B401">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C401">
-        <v>0.263</v>
+        <v>0.215</v>
       </c>
       <c r="D401" t="s">
         <v>403</v>
@@ -8007,13 +8007,13 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>45974.55208333334</v>
+        <v>45974.58333333334</v>
       </c>
       <c r="B402">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C402">
-        <v>0.266</v>
+        <v>0.207</v>
       </c>
       <c r="D402" t="s">
         <v>404</v>
@@ -8021,13 +8021,13 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>45974.5625</v>
+        <v>45974.59375</v>
       </c>
       <c r="B403">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C403">
-        <v>0.237</v>
+        <v>0.188</v>
       </c>
       <c r="D403" t="s">
         <v>405</v>
@@ -8035,13 +8035,13 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>45974.57291666666</v>
+        <v>45974.60416666666</v>
       </c>
       <c r="B404">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C404">
-        <v>0.216</v>
+        <v>0.154</v>
       </c>
       <c r="D404" t="s">
         <v>406</v>
@@ -8049,13 +8049,13 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>45974.58333333334</v>
+        <v>45974.61458333334</v>
       </c>
       <c r="B405">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C405">
-        <v>0.204</v>
+        <v>0.115</v>
       </c>
       <c r="D405" t="s">
         <v>407</v>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>45974.59375</v>
+        <v>45974.625</v>
       </c>
       <c r="B406">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C406">
-        <v>0.183</v>
+        <v>0.103</v>
       </c>
       <c r="D406" t="s">
         <v>408</v>
@@ -8077,13 +8077,13 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>45974.60416666666</v>
+        <v>45974.63541666666</v>
       </c>
       <c r="B407">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C407">
-        <v>0.159</v>
+        <v>0.083</v>
       </c>
       <c r="D407" t="s">
         <v>409</v>
@@ -8091,13 +8091,13 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>45974.61458333334</v>
+        <v>45974.64583333334</v>
       </c>
       <c r="B408">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C408">
-        <v>0.118</v>
+        <v>0.065</v>
       </c>
       <c r="D408" t="s">
         <v>410</v>
@@ -8105,13 +8105,13 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>45974.625</v>
+        <v>45974.65625</v>
       </c>
       <c r="B409">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C409">
-        <v>0.103</v>
+        <v>0.04</v>
       </c>
       <c r="D409" t="s">
         <v>411</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>45974.63541666666</v>
+        <v>45974.66666666666</v>
       </c>
       <c r="B410">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C410">
-        <v>0.083</v>
+        <v>0.028</v>
       </c>
       <c r="D410" t="s">
         <v>412</v>
@@ -8133,13 +8133,13 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>45974.64583333334</v>
+        <v>45974.67708333334</v>
       </c>
       <c r="B411">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C411">
-        <v>0.065</v>
+        <v>0.012</v>
       </c>
       <c r="D411" t="s">
         <v>413</v>
@@ -8147,13 +8147,13 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>45974.65625</v>
+        <v>45974.6875</v>
       </c>
       <c r="B412">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C412">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D412" t="s">
         <v>414</v>
@@ -8161,13 +8161,13 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>45974.66666666666</v>
+        <v>45974.69791666666</v>
       </c>
       <c r="B413">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C413">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="D413" t="s">
         <v>415</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>45974.67708333334</v>
+        <v>45974.70833333334</v>
       </c>
       <c r="B414">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C414">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D414" t="s">
         <v>416</v>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>45974.6875</v>
+        <v>45974.71875</v>
       </c>
       <c r="B415">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -8203,10 +8203,10 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>45974.69791666666</v>
+        <v>45974.72916666666</v>
       </c>
       <c r="B416">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>45974.70833333334</v>
+        <v>45974.73958333334</v>
       </c>
       <c r="B417">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>45974.71875</v>
+        <v>45974.75</v>
       </c>
       <c r="B418">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -8245,10 +8245,10 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>45974.72916666666</v>
+        <v>45974.76041666666</v>
       </c>
       <c r="B419">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -8259,10 +8259,10 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>45974.73958333334</v>
+        <v>45974.77083333334</v>
       </c>
       <c r="B420">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>45974.75</v>
+        <v>45974.78125</v>
       </c>
       <c r="B421">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>45974.76041666666</v>
+        <v>45974.79166666666</v>
       </c>
       <c r="B422">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -8301,10 +8301,10 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>45974.77083333334</v>
+        <v>45974.80208333334</v>
       </c>
       <c r="B423">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -8315,10 +8315,10 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>45974.78125</v>
+        <v>45974.8125</v>
       </c>
       <c r="B424">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -8329,10 +8329,10 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>45974.79166666666</v>
+        <v>45974.82291666666</v>
       </c>
       <c r="B425">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -8343,10 +8343,10 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>45974.80208333334</v>
+        <v>45974.83333333334</v>
       </c>
       <c r="B426">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>45974.8125</v>
+        <v>45974.84375</v>
       </c>
       <c r="B427">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -8371,10 +8371,10 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>45974.82291666666</v>
+        <v>45974.85416666666</v>
       </c>
       <c r="B428">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -8385,10 +8385,10 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>45974.83333333334</v>
+        <v>45974.86458333334</v>
       </c>
       <c r="B429">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -8399,10 +8399,10 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>45974.84375</v>
+        <v>45974.875</v>
       </c>
       <c r="B430">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -8413,10 +8413,10 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>45974.85416666666</v>
+        <v>45974.88541666666</v>
       </c>
       <c r="B431">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>45974.86458333334</v>
+        <v>45974.89583333334</v>
       </c>
       <c r="B432">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>45974.875</v>
+        <v>45974.90625</v>
       </c>
       <c r="B433">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -8455,10 +8455,10 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>45974.88541666666</v>
+        <v>45974.91666666666</v>
       </c>
       <c r="B434">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>45974.89583333334</v>
+        <v>45974.92708333334</v>
       </c>
       <c r="B435">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -8483,10 +8483,10 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>45974.90625</v>
+        <v>45974.9375</v>
       </c>
       <c r="B436">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -8497,10 +8497,10 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>45974.91666666666</v>
+        <v>45974.94791666666</v>
       </c>
       <c r="B437">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -8511,10 +8511,10 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>45974.92708333334</v>
+        <v>45974.95833333334</v>
       </c>
       <c r="B438">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>45974.9375</v>
+        <v>45974.96875</v>
       </c>
       <c r="B439">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>45974.94791666666</v>
+        <v>45974.97916666666</v>
       </c>
       <c r="B440">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -8553,10 +8553,10 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>45974.95833333334</v>
+        <v>45974.98958333334</v>
       </c>
       <c r="B441">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>45974.96875</v>
+        <v>45975</v>
       </c>
       <c r="B442">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -8581,10 +8581,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>45974.97916666666</v>
+        <v>45975.01041666666</v>
       </c>
       <c r="B443">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -8595,10 +8595,10 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>45974.98958333334</v>
+        <v>45975.02083333334</v>
       </c>
       <c r="B444">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -8609,10 +8609,10 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>45975</v>
+        <v>45975.03125</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -8623,10 +8623,10 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>45975.01041666666</v>
+        <v>45975.04166666666</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -8637,10 +8637,10 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>45975.02083333334</v>
+        <v>45975.05208333334</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>45975.03125</v>
+        <v>45975.0625</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -8665,10 +8665,10 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>45975.04166666666</v>
+        <v>45975.07291666666</v>
       </c>
       <c r="B449">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -8679,10 +8679,10 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>45975.05208333334</v>
+        <v>45975.09375</v>
       </c>
       <c r="B450">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -8693,10 +8693,10 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>45975.0625</v>
+        <v>45975.10416666666</v>
       </c>
       <c r="B451">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>45975.07291666666</v>
+        <v>45975.11458333334</v>
       </c>
       <c r="B452">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -8721,10 +8721,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>45975.09375</v>
+        <v>45975.125</v>
       </c>
       <c r="B453">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>45975.10416666666</v>
+        <v>45975.13541666666</v>
       </c>
       <c r="B454">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>45975.11458333334</v>
+        <v>45975.14583333334</v>
       </c>
       <c r="B455">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -8763,10 +8763,10 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>45975.125</v>
+        <v>45975.15625</v>
       </c>
       <c r="B456">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -8777,10 +8777,10 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>45975.13541666666</v>
+        <v>45975.16666666666</v>
       </c>
       <c r="B457">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -8791,10 +8791,10 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>45975.14583333334</v>
+        <v>45975.17708333334</v>
       </c>
       <c r="B458">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>45975.15625</v>
+        <v>45975.1875</v>
       </c>
       <c r="B459">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>45975.16666666666</v>
+        <v>45975.19791666666</v>
       </c>
       <c r="B460">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -8833,10 +8833,10 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>45975.17708333334</v>
+        <v>45975.20833333334</v>
       </c>
       <c r="B461">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>45975.1875</v>
+        <v>45975.21875</v>
       </c>
       <c r="B462">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -8861,10 +8861,10 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>45975.19791666666</v>
+        <v>45975.22916666666</v>
       </c>
       <c r="B463">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>45975.20833333334</v>
+        <v>45975.23958333334</v>
       </c>
       <c r="B464">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>45975.21875</v>
+        <v>45975.25</v>
       </c>
       <c r="B465">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -8903,10 +8903,10 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>45975.22916666666</v>
+        <v>45975.26041666666</v>
       </c>
       <c r="B466">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>45975.23958333334</v>
+        <v>45975.27083333334</v>
       </c>
       <c r="B467">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>45975.25</v>
+        <v>45975.28125</v>
       </c>
       <c r="B468">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>45975.26041666666</v>
+        <v>45975.29166666666</v>
       </c>
       <c r="B469">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -8959,10 +8959,10 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>45975.27083333334</v>
+        <v>45975.30208333334</v>
       </c>
       <c r="B470">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -8973,10 +8973,10 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>45975.28125</v>
+        <v>45975.3125</v>
       </c>
       <c r="B471">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>45975.29166666666</v>
+        <v>45975.32291666666</v>
       </c>
       <c r="B472">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -9001,13 +9001,13 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>45975.30208333334</v>
+        <v>45975.33333333334</v>
       </c>
       <c r="B473">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="D473" t="s">
         <v>475</v>
@@ -9015,13 +9015,13 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>45975.3125</v>
+        <v>45975.34375</v>
       </c>
       <c r="B474">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D474" t="s">
         <v>476</v>
@@ -9029,13 +9029,13 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>45975.32291666666</v>
+        <v>45975.35416666666</v>
       </c>
       <c r="B475">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="D475" t="s">
         <v>477</v>
@@ -9043,13 +9043,13 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>45975.33333333334</v>
+        <v>45975.36458333334</v>
       </c>
       <c r="B476">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C476">
-        <v>0.017</v>
+        <v>0.08</v>
       </c>
       <c r="D476" t="s">
         <v>478</v>
@@ -9057,13 +9057,13 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>45975.34375</v>
+        <v>45975.375</v>
       </c>
       <c r="B477">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C477">
-        <v>0.031</v>
+        <v>0.163</v>
       </c>
       <c r="D477" t="s">
         <v>479</v>
@@ -9071,13 +9071,13 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>45975.35416666666</v>
+        <v>45975.38541666666</v>
       </c>
       <c r="B478">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C478">
-        <v>0.048</v>
+        <v>0.21</v>
       </c>
       <c r="D478" t="s">
         <v>480</v>
@@ -9085,13 +9085,13 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>45975.36458333334</v>
+        <v>45975.39583333334</v>
       </c>
       <c r="B479">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C479">
-        <v>0.08</v>
+        <v>0.234</v>
       </c>
       <c r="D479" t="s">
         <v>481</v>
@@ -9099,13 +9099,13 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>45975.375</v>
+        <v>45975.40625</v>
       </c>
       <c r="B480">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C480">
-        <v>0.163</v>
+        <v>0.276</v>
       </c>
       <c r="D480" t="s">
         <v>482</v>
@@ -9113,13 +9113,13 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>45975.38541666666</v>
+        <v>45975.41666666666</v>
       </c>
       <c r="B481">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C481">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="D481" t="s">
         <v>483</v>
@@ -9127,13 +9127,13 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>45975.39583333334</v>
+        <v>45975.42708333334</v>
       </c>
       <c r="B482">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C482">
-        <v>0.234</v>
+        <v>0.327</v>
       </c>
       <c r="D482" t="s">
         <v>484</v>
@@ -9141,13 +9141,13 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>45975.40625</v>
+        <v>45975.4375</v>
       </c>
       <c r="B483">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C483">
-        <v>0.276</v>
+        <v>0.383</v>
       </c>
       <c r="D483" t="s">
         <v>485</v>
@@ -9155,13 +9155,13 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>45975.41666666666</v>
+        <v>45975.44791666666</v>
       </c>
       <c r="B484">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C484">
-        <v>0.27</v>
+        <v>0.441</v>
       </c>
       <c r="D484" t="s">
         <v>486</v>
@@ -9169,13 +9169,13 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>45975.42708333334</v>
+        <v>45975.45833333334</v>
       </c>
       <c r="B485">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C485">
-        <v>0.327</v>
+        <v>0.509</v>
       </c>
       <c r="D485" t="s">
         <v>487</v>
@@ -9183,13 +9183,13 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>45975.4375</v>
+        <v>45975.46875</v>
       </c>
       <c r="B486">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C486">
-        <v>0.383</v>
+        <v>0.533</v>
       </c>
       <c r="D486" t="s">
         <v>488</v>
@@ -9197,13 +9197,13 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>45975.44791666666</v>
+        <v>45975.47916666666</v>
       </c>
       <c r="B487">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C487">
-        <v>0.441</v>
+        <v>0.581</v>
       </c>
       <c r="D487" t="s">
         <v>489</v>
@@ -9211,13 +9211,13 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>45975.45833333334</v>
+        <v>45975.48958333334</v>
       </c>
       <c r="B488">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C488">
-        <v>0.509</v>
+        <v>0.598</v>
       </c>
       <c r="D488" t="s">
         <v>490</v>
@@ -9225,13 +9225,13 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>45975.46875</v>
+        <v>45975.5</v>
       </c>
       <c r="B489">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C489">
-        <v>0.533</v>
+        <v>0.605</v>
       </c>
       <c r="D489" t="s">
         <v>491</v>
@@ -9239,13 +9239,13 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>45975.47916666666</v>
+        <v>45975.51041666666</v>
       </c>
       <c r="B490">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C490">
-        <v>0.581</v>
+        <v>0.607</v>
       </c>
       <c r="D490" t="s">
         <v>492</v>
@@ -9253,13 +9253,13 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>45975.48958333334</v>
+        <v>45975.52083333334</v>
       </c>
       <c r="B491">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C491">
-        <v>0.598</v>
+        <v>0.61</v>
       </c>
       <c r="D491" t="s">
         <v>493</v>
@@ -9267,10 +9267,10 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>45975.5</v>
+        <v>45975.53125</v>
       </c>
       <c r="B492">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C492">
         <v>0.605</v>
@@ -9281,13 +9281,13 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>45975.51041666666</v>
+        <v>45975.54166666666</v>
       </c>
       <c r="B493">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C493">
-        <v>0.606</v>
+        <v>0.588</v>
       </c>
       <c r="D493" t="s">
         <v>495</v>
@@ -9295,13 +9295,13 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>45975.52083333334</v>
+        <v>45975.55208333334</v>
       </c>
       <c r="B494">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C494">
-        <v>0.617</v>
+        <v>0.575</v>
       </c>
       <c r="D494" t="s">
         <v>496</v>
@@ -9309,13 +9309,13 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>45975.53125</v>
+        <v>45975.5625</v>
       </c>
       <c r="B495">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C495">
-        <v>0.606</v>
+        <v>0.523</v>
       </c>
       <c r="D495" t="s">
         <v>497</v>
@@ -9323,13 +9323,13 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45975.54166666666</v>
+        <v>45975.57291666666</v>
       </c>
       <c r="B496">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C496">
-        <v>0.601</v>
+        <v>0.495</v>
       </c>
       <c r="D496" t="s">
         <v>498</v>
@@ -9337,13 +9337,13 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45975.55208333334</v>
+        <v>45975.58333333334</v>
       </c>
       <c r="B497">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C497">
-        <v>0.576</v>
+        <v>0.425</v>
       </c>
       <c r="D497" t="s">
         <v>499</v>
@@ -9351,13 +9351,13 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45975.5625</v>
+        <v>45975.59375</v>
       </c>
       <c r="B498">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C498">
-        <v>0.528</v>
+        <v>0.368</v>
       </c>
       <c r="D498" t="s">
         <v>500</v>
@@ -9365,13 +9365,13 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45975.57291666666</v>
+        <v>45975.60416666666</v>
       </c>
       <c r="B499">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C499">
-        <v>0.493</v>
+        <v>0.309</v>
       </c>
       <c r="D499" t="s">
         <v>501</v>
@@ -9379,13 +9379,13 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45975.58333333334</v>
+        <v>45975.61458333334</v>
       </c>
       <c r="B500">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C500">
-        <v>0.418</v>
+        <v>0.203</v>
       </c>
       <c r="D500" t="s">
         <v>502</v>
@@ -9393,13 +9393,13 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45975.59375</v>
+        <v>45975.625</v>
       </c>
       <c r="B501">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C501">
-        <v>0.344</v>
+        <v>0.142</v>
       </c>
       <c r="D501" t="s">
         <v>503</v>
@@ -9407,13 +9407,13 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="2">
-        <v>45975.60416666666</v>
+        <v>45975.63541666666</v>
       </c>
       <c r="B502">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C502">
-        <v>0.296</v>
+        <v>0.079</v>
       </c>
       <c r="D502" t="s">
         <v>504</v>
@@ -9421,13 +9421,13 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="2">
-        <v>45975.61458333334</v>
+        <v>45975.64583333334</v>
       </c>
       <c r="B503">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C503">
-        <v>0.212</v>
+        <v>0.055</v>
       </c>
       <c r="D503" t="s">
         <v>505</v>
@@ -9435,13 +9435,13 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="2">
-        <v>45975.625</v>
+        <v>45975.65625</v>
       </c>
       <c r="B504">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C504">
-        <v>0.139</v>
+        <v>0.035</v>
       </c>
       <c r="D504" t="s">
         <v>506</v>
@@ -9449,13 +9449,13 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2">
-        <v>45975.63541666666</v>
+        <v>45975.66666666666</v>
       </c>
       <c r="B505">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C505">
-        <v>0.079</v>
+        <v>0.017</v>
       </c>
       <c r="D505" t="s">
         <v>507</v>
@@ -9463,13 +9463,13 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2">
-        <v>45975.64583333334</v>
+        <v>45975.67708333334</v>
       </c>
       <c r="B506">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C506">
-        <v>0.055</v>
+        <v>0.016</v>
       </c>
       <c r="D506" t="s">
         <v>508</v>
@@ -9477,13 +9477,13 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="2">
-        <v>45975.65625</v>
+        <v>45975.6875</v>
       </c>
       <c r="B507">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C507">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="D507" t="s">
         <v>509</v>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="2">
-        <v>45975.66666666666</v>
+        <v>45975.69791666666</v>
       </c>
       <c r="B508">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C508">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="D508" t="s">
         <v>510</v>
@@ -9505,13 +9505,13 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="2">
-        <v>45975.67708333334</v>
+        <v>45975.70833333334</v>
       </c>
       <c r="B509">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C509">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D509" t="s">
         <v>511</v>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="2">
-        <v>45975.6875</v>
+        <v>45975.71875</v>
       </c>
       <c r="B510">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -9533,10 +9533,10 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="2">
-        <v>45975.69791666666</v>
+        <v>45975.72916666666</v>
       </c>
       <c r="B511">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="2">
-        <v>45975.70833333334</v>
+        <v>45975.73958333334</v>
       </c>
       <c r="B512">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -9561,10 +9561,10 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="2">
-        <v>45975.71875</v>
+        <v>45975.75</v>
       </c>
       <c r="B513">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -9575,10 +9575,10 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="2">
-        <v>45975.72916666666</v>
+        <v>45975.76041666666</v>
       </c>
       <c r="B514">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -9589,10 +9589,10 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="2">
-        <v>45975.73958333334</v>
+        <v>45975.77083333334</v>
       </c>
       <c r="B515">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="2">
-        <v>45975.75</v>
+        <v>45975.78125</v>
       </c>
       <c r="B516">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -9617,10 +9617,10 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="2">
-        <v>45975.76041666666</v>
+        <v>45975.79166666666</v>
       </c>
       <c r="B517">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -9631,10 +9631,10 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="2">
-        <v>45975.77083333334</v>
+        <v>45975.80208333334</v>
       </c>
       <c r="B518">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -9645,10 +9645,10 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="2">
-        <v>45975.78125</v>
+        <v>45975.8125</v>
       </c>
       <c r="B519">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -9659,10 +9659,10 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="2">
-        <v>45975.79166666666</v>
+        <v>45975.82291666666</v>
       </c>
       <c r="B520">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -9673,10 +9673,10 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="2">
-        <v>45975.80208333334</v>
+        <v>45975.83333333334</v>
       </c>
       <c r="B521">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -9687,10 +9687,10 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="2">
-        <v>45975.8125</v>
+        <v>45975.84375</v>
       </c>
       <c r="B522">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -9701,10 +9701,10 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="2">
-        <v>45975.82291666666</v>
+        <v>45975.85416666666</v>
       </c>
       <c r="B523">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="2">
-        <v>45975.83333333334</v>
+        <v>45975.86458333334</v>
       </c>
       <c r="B524">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -9729,10 +9729,10 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="2">
-        <v>45975.84375</v>
+        <v>45975.875</v>
       </c>
       <c r="B525">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="2">
-        <v>45975.85416666666</v>
+        <v>45975.88541666666</v>
       </c>
       <c r="B526">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -9757,10 +9757,10 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="2">
-        <v>45975.86458333334</v>
+        <v>45975.89583333334</v>
       </c>
       <c r="B527">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -9771,10 +9771,10 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="2">
-        <v>45975.875</v>
+        <v>45975.90625</v>
       </c>
       <c r="B528">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -9785,10 +9785,10 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="2">
-        <v>45975.88541666666</v>
+        <v>45975.91666666666</v>
       </c>
       <c r="B529">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -9799,10 +9799,10 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="2">
-        <v>45975.89583333334</v>
+        <v>45975.92708333334</v>
       </c>
       <c r="B530">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -9813,10 +9813,10 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="2">
-        <v>45975.90625</v>
+        <v>45975.9375</v>
       </c>
       <c r="B531">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -9827,10 +9827,10 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="2">
-        <v>45975.91666666666</v>
+        <v>45975.94791666666</v>
       </c>
       <c r="B532">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="2">
-        <v>45975.92708333334</v>
+        <v>45975.95833333334</v>
       </c>
       <c r="B533">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -9855,10 +9855,10 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="2">
-        <v>45975.9375</v>
+        <v>45975.96875</v>
       </c>
       <c r="B534">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -9869,10 +9869,10 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="2">
-        <v>45975.94791666666</v>
+        <v>45975.97916666666</v>
       </c>
       <c r="B535">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="2">
-        <v>45975.95833333334</v>
+        <v>45975.98958333334</v>
       </c>
       <c r="B536">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -9897,10 +9897,10 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="2">
-        <v>45975.96875</v>
+        <v>45976</v>
       </c>
       <c r="B537">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -9911,10 +9911,10 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="2">
-        <v>45975.97916666666</v>
+        <v>45976.01041666666</v>
       </c>
       <c r="B538">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="2">
-        <v>45975.98958333334</v>
+        <v>45976.02083333334</v>
       </c>
       <c r="B539">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -9939,10 +9939,10 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="2">
-        <v>45976</v>
+        <v>45976.03125</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -9953,10 +9953,10 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="2">
-        <v>45976.01041666666</v>
+        <v>45976.04166666666</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -9967,10 +9967,10 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="2">
-        <v>45976.02083333334</v>
+        <v>45976.05208333334</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -9981,10 +9981,10 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="2">
-        <v>45976.03125</v>
+        <v>45976.0625</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="2">
-        <v>45976.04166666666</v>
+        <v>45976.07291666666</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -10009,10 +10009,10 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="2">
-        <v>45976.05208333334</v>
+        <v>45976.09375</v>
       </c>
       <c r="B545">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="2">
-        <v>45976.0625</v>
+        <v>45976.10416666666</v>
       </c>
       <c r="B546">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="2">
-        <v>45976.07291666666</v>
+        <v>45976.11458333334</v>
       </c>
       <c r="B547">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -10051,10 +10051,10 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="2">
-        <v>45976.09375</v>
+        <v>45976.125</v>
       </c>
       <c r="B548">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -10065,10 +10065,10 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="2">
-        <v>45976.10416666666</v>
+        <v>45976.13541666666</v>
       </c>
       <c r="B549">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -10079,10 +10079,10 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="2">
-        <v>45976.11458333334</v>
+        <v>45976.14583333334</v>
       </c>
       <c r="B550">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -10093,10 +10093,10 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="2">
-        <v>45976.125</v>
+        <v>45976.15625</v>
       </c>
       <c r="B551">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -10107,10 +10107,10 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="2">
-        <v>45976.13541666666</v>
+        <v>45976.16666666666</v>
       </c>
       <c r="B552">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -10121,10 +10121,10 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="2">
-        <v>45976.14583333334</v>
+        <v>45976.17708333334</v>
       </c>
       <c r="B553">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -10135,10 +10135,10 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="2">
-        <v>45976.15625</v>
+        <v>45976.1875</v>
       </c>
       <c r="B554">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -10149,10 +10149,10 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="2">
-        <v>45976.16666666666</v>
+        <v>45976.19791666666</v>
       </c>
       <c r="B555">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -10163,10 +10163,10 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="2">
-        <v>45976.17708333334</v>
+        <v>45976.20833333334</v>
       </c>
       <c r="B556">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -10177,10 +10177,10 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="2">
-        <v>45976.1875</v>
+        <v>45976.21875</v>
       </c>
       <c r="B557">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -10191,10 +10191,10 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="2">
-        <v>45976.19791666666</v>
+        <v>45976.22916666666</v>
       </c>
       <c r="B558">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -10205,10 +10205,10 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="2">
-        <v>45976.20833333334</v>
+        <v>45976.23958333334</v>
       </c>
       <c r="B559">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -10219,10 +10219,10 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="2">
-        <v>45976.21875</v>
+        <v>45976.25</v>
       </c>
       <c r="B560">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -10233,10 +10233,10 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="2">
-        <v>45976.22916666666</v>
+        <v>45976.26041666666</v>
       </c>
       <c r="B561">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -10247,10 +10247,10 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="2">
-        <v>45976.23958333334</v>
+        <v>45976.27083333334</v>
       </c>
       <c r="B562">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -10261,10 +10261,10 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="2">
-        <v>45976.25</v>
+        <v>45976.28125</v>
       </c>
       <c r="B563">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -10275,10 +10275,10 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2">
-        <v>45976.26041666666</v>
+        <v>45976.29166666666</v>
       </c>
       <c r="B564">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -10289,10 +10289,10 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2">
-        <v>45976.27083333334</v>
+        <v>45976.30208333334</v>
       </c>
       <c r="B565">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -10303,10 +10303,10 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2">
-        <v>45976.28125</v>
+        <v>45976.3125</v>
       </c>
       <c r="B566">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -10317,10 +10317,10 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2">
-        <v>45976.29166666666</v>
+        <v>45976.32291666666</v>
       </c>
       <c r="B567">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -10331,13 +10331,13 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2">
-        <v>45976.30208333334</v>
+        <v>45976.33333333334</v>
       </c>
       <c r="B568">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C568">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="D568" t="s">
         <v>570</v>
@@ -10345,13 +10345,13 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2">
-        <v>45976.3125</v>
+        <v>45976.34375</v>
       </c>
       <c r="B569">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C569">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D569" t="s">
         <v>571</v>
@@ -10359,13 +10359,13 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2">
-        <v>45976.32291666666</v>
+        <v>45976.35416666666</v>
       </c>
       <c r="B570">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C570">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="D570" t="s">
         <v>572</v>
@@ -10373,13 +10373,13 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2">
-        <v>45976.33333333334</v>
+        <v>45976.36458333334</v>
       </c>
       <c r="B571">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C571">
-        <v>0.018</v>
+        <v>0.104</v>
       </c>
       <c r="D571" t="s">
         <v>573</v>
@@ -10387,13 +10387,13 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="2">
-        <v>45976.34375</v>
+        <v>45976.375</v>
       </c>
       <c r="B572">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C572">
-        <v>0.031</v>
+        <v>0.18</v>
       </c>
       <c r="D572" t="s">
         <v>574</v>
@@ -10401,13 +10401,13 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="2">
-        <v>45976.35416666666</v>
+        <v>45976.38541666666</v>
       </c>
       <c r="B573">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C573">
-        <v>0.051</v>
+        <v>0.223</v>
       </c>
       <c r="D573" t="s">
         <v>575</v>
@@ -10415,13 +10415,13 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="2">
-        <v>45976.36458333334</v>
+        <v>45976.39583333334</v>
       </c>
       <c r="B574">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C574">
-        <v>0.104</v>
+        <v>0.249</v>
       </c>
       <c r="D574" t="s">
         <v>576</v>
@@ -10429,13 +10429,13 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2">
-        <v>45976.375</v>
+        <v>45976.40625</v>
       </c>
       <c r="B575">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C575">
-        <v>0.18</v>
+        <v>0.299</v>
       </c>
       <c r="D575" t="s">
         <v>577</v>
@@ -10443,13 +10443,13 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2">
-        <v>45976.38541666666</v>
+        <v>45976.41666666666</v>
       </c>
       <c r="B576">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C576">
-        <v>0.223</v>
+        <v>0.294</v>
       </c>
       <c r="D576" t="s">
         <v>578</v>
@@ -10457,13 +10457,13 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="2">
-        <v>45976.39583333334</v>
+        <v>45976.42708333334</v>
       </c>
       <c r="B577">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C577">
-        <v>0.249</v>
+        <v>0.346</v>
       </c>
       <c r="D577" t="s">
         <v>579</v>
@@ -10471,13 +10471,13 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="2">
-        <v>45976.40625</v>
+        <v>45976.4375</v>
       </c>
       <c r="B578">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C578">
-        <v>0.299</v>
+        <v>0.456</v>
       </c>
       <c r="D578" t="s">
         <v>580</v>
@@ -10485,13 +10485,13 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="2">
-        <v>45976.41666666666</v>
+        <v>45976.44791666666</v>
       </c>
       <c r="B579">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C579">
-        <v>0.294</v>
+        <v>0.507</v>
       </c>
       <c r="D579" t="s">
         <v>581</v>
@@ -10499,13 +10499,13 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="2">
-        <v>45976.42708333334</v>
+        <v>45976.45833333334</v>
       </c>
       <c r="B580">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C580">
-        <v>0.346</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D580" t="s">
         <v>582</v>
@@ -10513,13 +10513,13 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="2">
-        <v>45976.4375</v>
+        <v>45976.46875</v>
       </c>
       <c r="B581">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C581">
-        <v>0.456</v>
+        <v>0.6</v>
       </c>
       <c r="D581" t="s">
         <v>583</v>
@@ -10527,13 +10527,13 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="2">
-        <v>45976.44791666666</v>
+        <v>45976.47916666666</v>
       </c>
       <c r="B582">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C582">
-        <v>0.507</v>
+        <v>0.62</v>
       </c>
       <c r="D582" t="s">
         <v>584</v>
@@ -10541,13 +10541,13 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="2">
-        <v>45976.45833333334</v>
+        <v>45976.48958333334</v>
       </c>
       <c r="B583">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C583">
-        <v>0.5669999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="D583" t="s">
         <v>585</v>
@@ -10555,13 +10555,13 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="2">
-        <v>45976.46875</v>
+        <v>45976.5</v>
       </c>
       <c r="B584">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C584">
-        <v>0.6</v>
+        <v>0.644</v>
       </c>
       <c r="D584" t="s">
         <v>586</v>
@@ -10569,13 +10569,13 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="2">
-        <v>45976.47916666666</v>
+        <v>45976.51041666666</v>
       </c>
       <c r="B585">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C585">
-        <v>0.62</v>
+        <v>0.646</v>
       </c>
       <c r="D585" t="s">
         <v>587</v>
@@ -10583,13 +10583,13 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="2">
-        <v>45976.48958333334</v>
+        <v>45976.52083333334</v>
       </c>
       <c r="B586">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C586">
-        <v>0.626</v>
+        <v>0.647</v>
       </c>
       <c r="D586" t="s">
         <v>588</v>
@@ -10597,13 +10597,13 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="2">
-        <v>45976.5</v>
+        <v>45976.53125</v>
       </c>
       <c r="B587">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C587">
-        <v>0.644</v>
+        <v>0.638</v>
       </c>
       <c r="D587" t="s">
         <v>589</v>
@@ -10611,13 +10611,13 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="2">
-        <v>45976.51041666666</v>
+        <v>45976.54166666666</v>
       </c>
       <c r="B588">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C588">
-        <v>0.646</v>
+        <v>0.623</v>
       </c>
       <c r="D588" t="s">
         <v>590</v>
@@ -10625,13 +10625,13 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="2">
-        <v>45976.52083333334</v>
+        <v>45976.55208333334</v>
       </c>
       <c r="B589">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C589">
-        <v>0.647</v>
+        <v>0.613</v>
       </c>
       <c r="D589" t="s">
         <v>591</v>
@@ -10639,13 +10639,13 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="2">
-        <v>45976.53125</v>
+        <v>45976.5625</v>
       </c>
       <c r="B590">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C590">
-        <v>0.638</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D590" t="s">
         <v>592</v>
@@ -10653,13 +10653,13 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="2">
-        <v>45976.54166666666</v>
+        <v>45976.57291666666</v>
       </c>
       <c r="B591">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C591">
-        <v>0.623</v>
+        <v>0.502</v>
       </c>
       <c r="D591" t="s">
         <v>593</v>
@@ -10667,13 +10667,13 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="2">
-        <v>45976.55208333334</v>
+        <v>45976.58333333334</v>
       </c>
       <c r="B592">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C592">
-        <v>0.613</v>
+        <v>0.427</v>
       </c>
       <c r="D592" t="s">
         <v>594</v>
@@ -10681,13 +10681,13 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="2">
-        <v>45976.5625</v>
+        <v>45976.59375</v>
       </c>
       <c r="B593">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C593">
-        <v>0.5649999999999999</v>
+        <v>0.346</v>
       </c>
       <c r="D593" t="s">
         <v>595</v>
@@ -10695,13 +10695,13 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="2">
-        <v>45976.57291666666</v>
+        <v>45976.60416666666</v>
       </c>
       <c r="B594">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C594">
-        <v>0.502</v>
+        <v>0.304</v>
       </c>
       <c r="D594" t="s">
         <v>596</v>
@@ -10709,13 +10709,13 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="2">
-        <v>45976.58333333334</v>
+        <v>45976.61458333334</v>
       </c>
       <c r="B595">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C595">
-        <v>0.427</v>
+        <v>0.231</v>
       </c>
       <c r="D595" t="s">
         <v>597</v>
@@ -10723,13 +10723,13 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="2">
-        <v>45976.59375</v>
+        <v>45976.625</v>
       </c>
       <c r="B596">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C596">
-        <v>0.346</v>
+        <v>0.159</v>
       </c>
       <c r="D596" t="s">
         <v>598</v>
@@ -10737,13 +10737,13 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="2">
-        <v>45976.60416666666</v>
+        <v>45976.63541666666</v>
       </c>
       <c r="B597">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C597">
-        <v>0.304</v>
+        <v>0.081</v>
       </c>
       <c r="D597" t="s">
         <v>599</v>
@@ -10751,13 +10751,13 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="2">
-        <v>45976.61458333334</v>
+        <v>45976.64583333334</v>
       </c>
       <c r="B598">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C598">
-        <v>0.231</v>
+        <v>0.052</v>
       </c>
       <c r="D598" t="s">
         <v>600</v>
@@ -10765,13 +10765,13 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="2">
-        <v>45976.625</v>
+        <v>45976.65625</v>
       </c>
       <c r="B599">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C599">
-        <v>0.159</v>
+        <v>0.029</v>
       </c>
       <c r="D599" t="s">
         <v>601</v>
@@ -10779,13 +10779,13 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="2">
-        <v>45976.63541666666</v>
+        <v>45976.66666666666</v>
       </c>
       <c r="B600">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C600">
-        <v>0.081</v>
+        <v>0.024</v>
       </c>
       <c r="D600" t="s">
         <v>602</v>
@@ -10793,13 +10793,13 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="2">
-        <v>45976.64583333334</v>
+        <v>45976.67708333334</v>
       </c>
       <c r="B601">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C601">
-        <v>0.052</v>
+        <v>0.016</v>
       </c>
       <c r="D601" t="s">
         <v>603</v>
@@ -10807,13 +10807,13 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="2">
-        <v>45976.65625</v>
+        <v>45976.6875</v>
       </c>
       <c r="B602">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C602">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="D602" t="s">
         <v>604</v>
@@ -10821,13 +10821,13 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="2">
-        <v>45976.66666666666</v>
+        <v>45976.69791666666</v>
       </c>
       <c r="B603">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C603">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D603" t="s">
         <v>605</v>
@@ -10835,13 +10835,13 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="2">
-        <v>45976.67708333334</v>
+        <v>45976.70833333334</v>
       </c>
       <c r="B604">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C604">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D604" t="s">
         <v>606</v>
@@ -10849,10 +10849,10 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="2">
-        <v>45976.6875</v>
+        <v>45976.71875</v>
       </c>
       <c r="B605">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -10863,10 +10863,10 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="2">
-        <v>45976.69791666666</v>
+        <v>45976.72916666666</v>
       </c>
       <c r="B606">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="2">
-        <v>45976.70833333334</v>
+        <v>45976.73958333334</v>
       </c>
       <c r="B607">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -10891,10 +10891,10 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="2">
-        <v>45976.71875</v>
+        <v>45976.75</v>
       </c>
       <c r="B608">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -10905,10 +10905,10 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="2">
-        <v>45976.72916666666</v>
+        <v>45976.76041666666</v>
       </c>
       <c r="B609">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -10919,10 +10919,10 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="2">
-        <v>45976.73958333334</v>
+        <v>45976.77083333334</v>
       </c>
       <c r="B610">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C610">
         <v>0</v>
@@ -10933,10 +10933,10 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="2">
-        <v>45976.75</v>
+        <v>45976.78125</v>
       </c>
       <c r="B611">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C611">
         <v>0</v>
@@ -10947,10 +10947,10 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="2">
-        <v>45976.76041666666</v>
+        <v>45976.79166666666</v>
       </c>
       <c r="B612">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C612">
         <v>0</v>
@@ -10961,10 +10961,10 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="2">
-        <v>45976.77083333334</v>
+        <v>45976.80208333334</v>
       </c>
       <c r="B613">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -10975,10 +10975,10 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="2">
-        <v>45976.78125</v>
+        <v>45976.8125</v>
       </c>
       <c r="B614">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C614">
         <v>0</v>
@@ -10989,10 +10989,10 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="2">
-        <v>45976.79166666666</v>
+        <v>45976.82291666666</v>
       </c>
       <c r="B615">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -11003,10 +11003,10 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="2">
-        <v>45976.80208333334</v>
+        <v>45976.83333333334</v>
       </c>
       <c r="B616">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -11017,10 +11017,10 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="2">
-        <v>45976.8125</v>
+        <v>45976.84375</v>
       </c>
       <c r="B617">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -11031,10 +11031,10 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="2">
-        <v>45976.82291666666</v>
+        <v>45976.85416666666</v>
       </c>
       <c r="B618">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -11045,10 +11045,10 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="2">
-        <v>45976.83333333334</v>
+        <v>45976.86458333334</v>
       </c>
       <c r="B619">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -11059,10 +11059,10 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="2">
-        <v>45976.84375</v>
+        <v>45976.875</v>
       </c>
       <c r="B620">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -11073,10 +11073,10 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="2">
-        <v>45976.85416666666</v>
+        <v>45976.88541666666</v>
       </c>
       <c r="B621">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -11087,10 +11087,10 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="2">
-        <v>45976.86458333334</v>
+        <v>45976.89583333334</v>
       </c>
       <c r="B622">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -11101,10 +11101,10 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="2">
-        <v>45976.875</v>
+        <v>45976.90625</v>
       </c>
       <c r="B623">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -11115,10 +11115,10 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="2">
-        <v>45976.88541666666</v>
+        <v>45976.91666666666</v>
       </c>
       <c r="B624">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -11129,10 +11129,10 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="2">
-        <v>45976.89583333334</v>
+        <v>45976.92708333334</v>
       </c>
       <c r="B625">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -11143,10 +11143,10 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="2">
-        <v>45976.90625</v>
+        <v>45976.9375</v>
       </c>
       <c r="B626">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -11157,10 +11157,10 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="2">
-        <v>45976.91666666666</v>
+        <v>45976.94791666666</v>
       </c>
       <c r="B627">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -11171,10 +11171,10 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="2">
-        <v>45976.92708333334</v>
+        <v>45976.95833333334</v>
       </c>
       <c r="B628">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -11185,10 +11185,10 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="2">
-        <v>45976.9375</v>
+        <v>45976.96875</v>
       </c>
       <c r="B629">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -11199,10 +11199,10 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="2">
-        <v>45976.94791666666</v>
+        <v>45976.97916666666</v>
       </c>
       <c r="B630">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -11213,10 +11213,10 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="2">
-        <v>45976.95833333334</v>
+        <v>45976.98958333334</v>
       </c>
       <c r="B631">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -11227,10 +11227,10 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="2">
-        <v>45976.96875</v>
+        <v>45977</v>
       </c>
       <c r="B632">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -11241,10 +11241,10 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="2">
-        <v>45976.97916666666</v>
+        <v>45977.01041666666</v>
       </c>
       <c r="B633">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="2">
-        <v>45976.98958333334</v>
+        <v>45977.02083333334</v>
       </c>
       <c r="B634">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -11269,10 +11269,10 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="2">
-        <v>45977</v>
+        <v>45977.03125</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -11283,10 +11283,10 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="2">
-        <v>45977.01041666666</v>
+        <v>45977.04166666666</v>
       </c>
       <c r="B636">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -11297,10 +11297,10 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="2">
-        <v>45977.02083333334</v>
+        <v>45977.05208333334</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -11311,10 +11311,10 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="2">
-        <v>45977.03125</v>
+        <v>45977.0625</v>
       </c>
       <c r="B638">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="2">
-        <v>45977.04166666666</v>
+        <v>45977.07291666666</v>
       </c>
       <c r="B639">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -11339,10 +11339,10 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="2">
-        <v>45977.05208333334</v>
+        <v>45977.09375</v>
       </c>
       <c r="B640">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2">
-        <v>45977.0625</v>
+        <v>45977.10416666666</v>
       </c>
       <c r="B641">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -11367,10 +11367,10 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2">
-        <v>45977.07291666666</v>
+        <v>45977.11458333334</v>
       </c>
       <c r="B642">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2">
-        <v>45977.09375</v>
+        <v>45977.125</v>
       </c>
       <c r="B643">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -11395,10 +11395,10 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2">
-        <v>45977.10416666666</v>
+        <v>45977.13541666666</v>
       </c>
       <c r="B644">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2">
-        <v>45977.11458333334</v>
+        <v>45977.14583333334</v>
       </c>
       <c r="B645">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -11423,10 +11423,10 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2">
-        <v>45977.125</v>
+        <v>45977.15625</v>
       </c>
       <c r="B646">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -11437,10 +11437,10 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2">
-        <v>45977.13541666666</v>
+        <v>45977.16666666666</v>
       </c>
       <c r="B647">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -11451,10 +11451,10 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2">
-        <v>45977.14583333334</v>
+        <v>45977.17708333334</v>
       </c>
       <c r="B648">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -11465,10 +11465,10 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2">
-        <v>45977.15625</v>
+        <v>45977.1875</v>
       </c>
       <c r="B649">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -11479,10 +11479,10 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2">
-        <v>45977.16666666666</v>
+        <v>45977.19791666666</v>
       </c>
       <c r="B650">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -11493,10 +11493,10 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2">
-        <v>45977.17708333334</v>
+        <v>45977.20833333334</v>
       </c>
       <c r="B651">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -11507,10 +11507,10 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2">
-        <v>45977.1875</v>
+        <v>45977.21875</v>
       </c>
       <c r="B652">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -11521,10 +11521,10 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2">
-        <v>45977.19791666666</v>
+        <v>45977.22916666666</v>
       </c>
       <c r="B653">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -11535,10 +11535,10 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2">
-        <v>45977.20833333334</v>
+        <v>45977.23958333334</v>
       </c>
       <c r="B654">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2">
-        <v>45977.21875</v>
+        <v>45977.25</v>
       </c>
       <c r="B655">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -11563,10 +11563,10 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2">
-        <v>45977.22916666666</v>
+        <v>45977.26041666666</v>
       </c>
       <c r="B656">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -11577,10 +11577,10 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="2">
-        <v>45977.23958333334</v>
+        <v>45977.27083333334</v>
       </c>
       <c r="B657">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="2">
-        <v>45977.25</v>
+        <v>45977.28125</v>
       </c>
       <c r="B658">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="2">
-        <v>45977.26041666666</v>
+        <v>45977.29166666666</v>
       </c>
       <c r="B659">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -11619,10 +11619,10 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="2">
-        <v>45977.27083333334</v>
+        <v>45977.30208333334</v>
       </c>
       <c r="B660">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -11633,10 +11633,10 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="2">
-        <v>45977.28125</v>
+        <v>45977.3125</v>
       </c>
       <c r="B661">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="2">
-        <v>45977.29166666666</v>
+        <v>45977.32291666666</v>
       </c>
       <c r="B662">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -11661,10 +11661,10 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="2">
-        <v>45977.30208333334</v>
+        <v>45977.33333333334</v>
       </c>
       <c r="B663">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -11675,13 +11675,13 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="2">
-        <v>45977.3125</v>
+        <v>45977.34375</v>
       </c>
       <c r="B664">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C664">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D664" t="s">
         <v>666</v>
@@ -11689,13 +11689,13 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="2">
-        <v>45977.32291666666</v>
+        <v>45977.35416666666</v>
       </c>
       <c r="B665">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C665">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D665" t="s">
         <v>667</v>
@@ -11703,13 +11703,13 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="2">
-        <v>45977.33333333334</v>
+        <v>45977.36458333334</v>
       </c>
       <c r="B666">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C666">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="D666" t="s">
         <v>668</v>
@@ -11717,13 +11717,13 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="2">
-        <v>45977.34375</v>
+        <v>45977.375</v>
       </c>
       <c r="B667">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C667">
-        <v>0.015</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D667" t="s">
         <v>669</v>
